--- a/data-provider/dev-data/API_template_20190109.xlsx
+++ b/data-provider/dev-data/API_template_20190109.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tandt1/projects/automation-practice/data-provider/dev-data/"/>
     </mc:Choice>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -276,11 +276,15 @@
   <si>
     <t>Test1590372234257</t>
   </si>
+  <si>
+    <t>Test1605500479376</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1108,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B7" activeCellId="1" sqref="D15 B7"/>
@@ -1116,11 +1120,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="63.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="9.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="2.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="5" max="1025" customWidth="true" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1261,30 +1265,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="15" defaultColWidth="8.83203125" defaultRowHeight="30.0" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="8" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="46.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="10.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="14.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="17" max="638" width="10.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="639" max="1025" width="11.5" style="12" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="38.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="25.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="9.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="16.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="49.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="46.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="11" width="27.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="9" width="32.5" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="9" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="13.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="16.33203125" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" style="9" width="14.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="9" width="27.33203125" collapsed="true"/>
+    <col min="17" max="638" customWidth="true" style="9" width="10.1640625" collapsed="true"/>
+    <col min="639" max="1025" style="12" width="11.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" s="20" customFormat="1" ht="19.75" customHeight="1">
@@ -6574,7 +6578,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>46</v>

--- a/data-provider/dev-data/API_template_20190109.xlsx
+++ b/data-provider/dev-data/API_template_20190109.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Test1605500479376</t>
+  </si>
+  <si>
+    <t>Test1607145167886</t>
   </si>
 </sst>
 </file>
@@ -6578,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>46</v>

--- a/data-provider/dev-data/API_template_20190109.xlsx
+++ b/data-provider/dev-data/API_template_20190109.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>Test1607145167886</t>
+  </si>
+  <si>
+    <t>Test1607485602909</t>
+  </si>
+  <si>
+    <t>Test1607485793472</t>
+  </si>
+  <si>
+    <t>Test1607485806148</t>
   </si>
 </sst>
 </file>
@@ -6581,7 +6590,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>46</v>
